--- a/Resultados/Resumo_Geral_LM_64ha.xlsx
+++ b/Resultados/Resumo_Geral_LM_64ha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{3E043107-BD34-440C-8F60-F5F3932C9F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16D0130A-1631-497F-A61E-DE5B8A273432}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{3E043107-BD34-440C-8F60-F5F3932C9F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A27A1BEC-8301-4FEB-AA7B-329276E3B1D7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{80529309-355A-41CB-8B30-76F0A66C03B4}"/>
   </bookViews>
@@ -29,6 +29,36 @@
     <sheet name="Planilha14" sheetId="14" r:id="rId14"/>
     <sheet name="Planilha15" sheetId="15" r:id="rId15"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Planilha10!$C$1:$C$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Planilha10!$I$1:$I$2</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Planilha15!$C$2:$C$20</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Planilha15!$I$2:$I$20</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Planilha2!$C$2:$C$20</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Planilha2!$I$2:$I$20</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Planilha3!$C$2:$C$20</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Planilha3!$I$2:$I$20</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Planilha4!$C$1:$C$2</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Planilha4!$I$1:$I$2</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Planilha5!$C$2:$C$20</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Planilha5!$I$2:$I$20</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Planilha11!$C$2:$C$20</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Planilha6!$C$2:$C$20</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Planilha6!$I$2:$I$20</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Planilha7!$C$1:$C$2</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Planilha7!$I$1:$I$2</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Planilha8!$C$2:$C$20</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Planilha8!$I$2:$I$20</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Planilha9!$C$2:$C$20</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Planilha9!$I$2:$I$20</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Planilha11!$I$2:$I$20</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Planilha12!$C$2:$C$20</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Planilha12!$I$2:$I$20</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Planilha13!$C$1:$C$2</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Planilha13!$I$1:$I$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Planilha14!$C$2:$C$20</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Planilha14!$I$2:$I$20</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -243,6 +273,7 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -255,7 +286,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Gráfico de Séries</a:t>
+              <a:t>LM</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> 64 ha</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -271,9 +306,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -285,10 +317,28 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>\field_64ha_100ha_2%_6m_0_LM\</c:v>
+            <c:v>64ha_2%_6m_LM</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -433,10 +483,28 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>field_64ha_100ha_2%_12m_0_LM\</c:v>
+            <c:v>64ha_2%_12m_LM</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -583,8 +651,16 @@
           <c:tx>
             <c:v>\field_64ha_100ha_6%_0m_0_LM\</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -615,10 +691,28 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>\field_64ha_100ha_6%_6m_0_LM\</c:v>
+            <c:v>64ha_6%_6m_LM</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -763,10 +857,28 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>field_64ha_100ha_6%_12m_0_LM\</c:v>
+            <c:v>64ha_6%_12m_LM</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -913,8 +1025,16 @@
           <c:tx>
             <c:v>field_64ha_100ha_10%_0m_0_LM\</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="star"/>
+            <c:size val="9"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -945,10 +1065,11 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>field_64ha_100ha_10%_6m_0_LM\</c:v>
+            <c:v>64ha_10%_6m_LM</c:v>
           </c:tx>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1093,10 +1214,28 @@
           <c:idx val="8"/>
           <c:order val="8"/>
           <c:tx>
-            <c:v>ield_64ha_100ha_10%_12m_0_LM\</c:v>
+            <c:v>64ha_10%_12m_LM</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E97132"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="E97132"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1243,8 +1382,16 @@
           <c:tx>
             <c:v>field_64ha_100ha_14%_0m_0_LM\</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="x"/>
+            <c:size val="9"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1275,10 +1422,28 @@
           <c:idx val="10"/>
           <c:order val="10"/>
           <c:tx>
-            <c:v>field_64ha_100ha_14%_6m_0_LM\</c:v>
+            <c:v>64ha_14%_6m_LM</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1423,10 +1588,28 @@
           <c:idx val="11"/>
           <c:order val="11"/>
           <c:tx>
-            <c:v>ield_64ha_100ha_14%_12m_0_LM\</c:v>
+            <c:v>64ha_14%_12m_LM</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1573,9 +1756,13 @@
           <c:tx>
             <c:v>field_64ha_100ha_18%_0m_0_LM\</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:cat>
             <c:numRef>
               <c:f>Planilha13!$C$1:$C$2</c:f>
@@ -1605,10 +1792,28 @@
           <c:idx val="13"/>
           <c:order val="13"/>
           <c:tx>
-            <c:v>field_64ha_100ha_18%_6m_0_LM\</c:v>
+            <c:v>64ha_18%_6m_LM</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1753,10 +1958,28 @@
           <c:idx val="14"/>
           <c:order val="14"/>
           <c:tx>
-            <c:v>ield_64ha_100ha_18%_12m_0_LM\</c:v>
+            <c:v>64ha_18%_12m_LM</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1905,6 +2128,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="712037328"/>
         <c:axId val="712025328"/>
@@ -1916,6 +2140,24 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Volume de calda [L]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1934,6 +2176,29 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Capacidade operacional</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> máxima [ha/h]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1948,6 +2213,32 @@
         <c:idx val="0"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="9"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="12"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81076765877040069"/>
+          <c:y val="0.12188375817429598"/>
+          <c:w val="0.17945079574541281"/>
+          <c:h val="0.81667413395359478"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2325,12 +2616,300 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="0E2841"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E8E8E8"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="156082"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="E97132"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="196B24"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="0F9ED5"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="A02B93"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="4EA72E"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="467886"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="96607D"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE2F514-49ED-4492-B163-F0FECEA2E518}">
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
